--- a/Worklog/SIT723 Worklog.xlsx
+++ b/Worklog/SIT723 Worklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deakin University (Applied AI (Professional)\SIT723 Research Project-A\Tasks\Task-1.1P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deakin University (Applied AI (Professional)\SIT723 Research Project-A\Tasks\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A424F3B-CEEF-4AB1-B376-85B21D2E2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADABC86-8360-4894-BB94-932ABDBA9DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
   <si>
     <t>Student Name</t>
   </si>
@@ -127,22 +127,94 @@
     <t xml:space="preserve">Downloaded datasets and understanding ML architecture </t>
   </si>
   <si>
-    <t>Weekly Meeting</t>
-  </si>
-  <si>
     <t>Meeting regarding the research paper &amp; implementing novel ML architectures</t>
   </si>
   <si>
     <t xml:space="preserve">Transformers AI </t>
   </si>
   <si>
-    <t>Learning about attention models &amp; Transformers AI</t>
-  </si>
-  <si>
     <t>Transformers AI Research Papers</t>
   </si>
   <si>
     <t>Searched and started working on 3 research papers where Transformers is used current industry</t>
+  </si>
+  <si>
+    <t>Understanding attention models &amp; Transformers AI</t>
+  </si>
+  <si>
+    <t>Understanding architecture &amp; working of Transformers</t>
+  </si>
+  <si>
+    <t>Transformers AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed the research papers </t>
+  </si>
+  <si>
+    <t>Started working on a PPT regarding transformers &amp; their applications</t>
+  </si>
+  <si>
+    <t>Reviewed the research papers (Methodologies, Datasets &amp; Results)</t>
+  </si>
+  <si>
+    <t>Made a PPT regarding transformers &amp; their applications (GPT, BERT &amp; their architectures)</t>
+  </si>
+  <si>
+    <t>Understanding transformers &amp; their applications</t>
+  </si>
+  <si>
+    <t>Searched top 3 transformers applications &amp; models in industry</t>
+  </si>
+  <si>
+    <t>Presented PPT &amp; research about Transformers. Tasked with finding 10 research papers on COVID-19 detection using X-ray images.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searched recent research papers based on COVID-19 detection using X-ray images </t>
+  </si>
+  <si>
+    <t>Completed task-1.2P (Project Desciption)</t>
+  </si>
+  <si>
+    <t>Weekly Class-1</t>
+  </si>
+  <si>
+    <t>Online Workshop-1</t>
+  </si>
+  <si>
+    <t>Weekly Class-2</t>
+  </si>
+  <si>
+    <t>Online Workshop-2 (watched recording)</t>
+  </si>
+  <si>
+    <t>Researched on the transformers architecture, methodology used, datasets used, Limitations, Advantages &amp; results</t>
+  </si>
+  <si>
+    <t>Weekly Meeting-2</t>
+  </si>
+  <si>
+    <t>Weekly Meeting-1</t>
+  </si>
+  <si>
+    <t>Weekly Class-3</t>
+  </si>
+  <si>
+    <t>Online Workshop-3 (watched recording)</t>
+  </si>
+  <si>
+    <t>Lecture Materials</t>
+  </si>
+  <si>
+    <t>Lecture Materials Week-1</t>
+  </si>
+  <si>
+    <t>Lecture Materials Week-2</t>
+  </si>
+  <si>
+    <t>Completed task-2.1P (Project Progress Report)</t>
+  </si>
+  <si>
+    <t>Completed task-3.1P (Project Progress Report)</t>
   </si>
 </sst>
 </file>
@@ -539,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -612,19 +684,19 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -635,19 +707,19 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4">
-        <v>44758</v>
+        <v>44756</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -658,19 +730,19 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>44759</v>
+        <v>44757</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -681,19 +753,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4">
-        <v>44760</v>
+        <v>44758</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -704,19 +776,19 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
-        <v>44761</v>
+        <v>44759</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -727,19 +799,456 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44760</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44761</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44761</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4">
         <v>44762</v>
       </c>
-      <c r="E9">
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44763</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44763</v>
+      </c>
+      <c r="E14">
         <v>120</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>35</v>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44764</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44764</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44765</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44765</v>
+      </c>
+      <c r="E18">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44766</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44767</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44768</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44769</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44770</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44770</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44771</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44771</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44772</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44772</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -751,13 +1260,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E432</xm:sqref>
+          <xm:sqref>E3 E6:E434</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
+          <xm:sqref>F3 F6:F26 F28:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1012,18 +1521,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,18 +1554,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worklog/SIT723 Worklog.xlsx
+++ b/Worklog/SIT723 Worklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deakin University (Applied AI (Professional)\SIT723 Research Project-A\Tasks\Worklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deakin University (Applied AI (Professional)\SIT723 Research Project-A\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADABC86-8360-4894-BB94-932ABDBA9DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E07735-7096-462D-A955-55131842C0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="73">
   <si>
     <t>Student Name</t>
   </si>
@@ -215,6 +215,45 @@
   </si>
   <si>
     <t>Completed task-3.1P (Project Progress Report)</t>
+  </si>
+  <si>
+    <t>Made a table of the transformer's architecture, methodology used, datasets used, Limitations, Advantages &amp; results (by in-depth study of 10 research papers)</t>
+  </si>
+  <si>
+    <t>Completed the table regarding COVID-19 detection using X-ray images</t>
+  </si>
+  <si>
+    <t>Weekly Meeting-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented documented table with 10 research papers on COVID-19 detection using X-ray images &amp; discussed task for next week  </t>
+  </si>
+  <si>
+    <t>Lecture Materials Week-3</t>
+  </si>
+  <si>
+    <t>Learning about GCP</t>
+  </si>
+  <si>
+    <t>Searching for transformers that have not been used in COVID-19 detection using X-ray images</t>
+  </si>
+  <si>
+    <t>Weekly Class-4</t>
+  </si>
+  <si>
+    <t>Online Workshop-4 (watched recording)</t>
+  </si>
+  <si>
+    <t>Uploading datasets on GCP account</t>
+  </si>
+  <si>
+    <t>Making a table for transformers that have not been used in COVID-19 detection using X-ray images</t>
+  </si>
+  <si>
+    <t>Working on Literature review draft</t>
+  </si>
+  <si>
+    <t>Completed task-4.1P (Research progress report)</t>
   </si>
 </sst>
 </file>
@@ -611,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1249,6 +1288,351 @@
       </c>
       <c r="G28" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44772</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44772</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44743</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44775</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44775</v>
+      </c>
+      <c r="E33">
+        <v>120</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44776</v>
+      </c>
+      <c r="E34">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44776</v>
+      </c>
+      <c r="E35">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44777</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44777</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44778</v>
+      </c>
+      <c r="E38">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44778</v>
+      </c>
+      <c r="E39">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44779</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44779</v>
+      </c>
+      <c r="E41">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44780</v>
+      </c>
+      <c r="E42">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44781</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1521,18 +1905,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,18 +1938,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worklog/SIT723 Worklog.xlsx
+++ b/Worklog/SIT723 Worklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deakin University (Applied AI (Professional)\SIT723 Research Project-A\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E07735-7096-462D-A955-55131842C0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D2C7D-9D08-4D48-B902-29CB113A7E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="116">
   <si>
     <t>Student Name</t>
   </si>
@@ -254,6 +254,135 @@
   </si>
   <si>
     <t>Completed task-4.1P (Research progress report)</t>
+  </si>
+  <si>
+    <t>Weekly Class-5</t>
+  </si>
+  <si>
+    <t>Online Workshop-5 (watched recording)</t>
+  </si>
+  <si>
+    <t>Lecture Materials Week-5</t>
+  </si>
+  <si>
+    <t>Weekly Meeting- 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented Literature review draft &amp; discussed about find the latest Transformers that are not applied on COVID-19 detection (3-papers) &amp; select any one for implementation. </t>
+  </si>
+  <si>
+    <t>Lecture Materials Week-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CvT: Introducing Convolutions to Vision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCiT: Cross-Covariance Image Transformers </t>
+  </si>
+  <si>
+    <t>A ConvNet for the 2020s</t>
+  </si>
+  <si>
+    <t>Differentiated between CNNs, original transformer, Vision transformer &amp; different type of transformers used in computer vision domain.</t>
+  </si>
+  <si>
+    <t>GCP for code implementation</t>
+  </si>
+  <si>
+    <t>Weekly Meeting- 5</t>
+  </si>
+  <si>
+    <t>Code Implementation using GCP</t>
+  </si>
+  <si>
+    <t>Created new instance named 'sit723v1' for 'CvT' model implementation, download WinSCP for transferring files</t>
+  </si>
+  <si>
+    <t>Configured WinSCP for file transfer from local machine to VM</t>
+  </si>
+  <si>
+    <t>Installed python 3.8.12 from scratch using 'make' to Debian 10 VM</t>
+  </si>
+  <si>
+    <t>Created new instance named 'sit723v2' as the previous one didn't have GPU &amp; error occurred 'Instances with guest acceleratorsdo not support live migration'</t>
+  </si>
+  <si>
+    <t>Made a PPT regarding CNN, original transformer &amp; vision transformer</t>
+  </si>
+  <si>
+    <t>Made a PPT regarding Types of transformers</t>
+  </si>
+  <si>
+    <t>Presented about CNNs, original transformer, vision transformer &amp; different types of transformers with an overview of GCP code implementation using 'CvT' model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed python 3.8 &amp; Nvidia drivers, debug code </t>
+  </si>
+  <si>
+    <t>Lecture Materials Week-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieved all the Research Project (A) materials &amp; uploaded the prepared dataset again on a new instance </t>
+  </si>
+  <si>
+    <t>Debugging error, system crashed due to failed GPU drivers in local system</t>
+  </si>
+  <si>
+    <t>Debugging error related to disk usage, nvidia driver version, python version</t>
+  </si>
+  <si>
+    <t>Weekly Class-6</t>
+  </si>
+  <si>
+    <t>Online Workshop-6 (watched recording)</t>
+  </si>
+  <si>
+    <t>Checked the working of code &amp; it's implementation</t>
+  </si>
+  <si>
+    <t>Completed task-7.1P (Research progress report)</t>
+  </si>
+  <si>
+    <t>Completed task-6.1P (Research progress report)</t>
+  </si>
+  <si>
+    <t>Debugging error related to code (CvT model)</t>
+  </si>
+  <si>
+    <t>Weekly Meeting-7</t>
+  </si>
+  <si>
+    <t>Updated on system crash &amp; code debugging</t>
+  </si>
+  <si>
+    <t>Created a instance named 'cvt-instance' with Nvidia Tesla K80 GPU &amp; n1-standard-8 CPU, using Debian 10 OS</t>
+  </si>
+  <si>
+    <t>Again installed python 3.8.12 with different Nvidia drivers &amp; cuDNN for code implementation</t>
+  </si>
+  <si>
+    <t>Cloned the GitHub repository on local machine &amp; transferred it to the VM using WinSCP, installed ‘requirements.txt’ for model implementation</t>
+  </si>
+  <si>
+    <t>Debugging error regarding Disk usage full, python version tanglement, GPU drivers, torch library error</t>
+  </si>
+  <si>
+    <t>Created new instance named 'instance-1' with Nvidia Tesla V100 GPU, n1-standard-4 Intel Haswell CPU with 100GB balanced persistent disk storage, Removed the default version of python (Python 3.7 &amp; Python 2.7) &amp; installed Python 3.8.12 on the VM</t>
+  </si>
+  <si>
+    <t>Removed the default version of python (Python 3.7 &amp; Python 2.7) &amp; installed Python 3.8.12 on the VM</t>
+  </si>
+  <si>
+    <t>Again, cloned the GitHub repository to the local system &amp; transferred it to the VM using ‘WinSCP’ software by authenticating VM with the private SSH keys</t>
+  </si>
+  <si>
+    <t>Installed Nvidia version 510.47 with CUDA 11.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented lot of debugging &amp; installed new libraries required for our ‘CvT’ model for detecting COVID-19 using the prepared dataset, finally code executed fully with only Accuracy &amp; Error percentages error </t>
+  </si>
+  <si>
+    <t>Completed task-8.1P (Research progress report)</t>
   </si>
 </sst>
 </file>
@@ -316,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -331,6 +460,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1635,8 +1765,1160 @@
         <v>72</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44783</v>
+      </c>
+      <c r="E44">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44784</v>
+      </c>
+      <c r="E45">
+        <v>120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44784</v>
+      </c>
+      <c r="E46">
+        <v>120</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44785</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44785</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44786</v>
+      </c>
+      <c r="E49">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44786</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44786</v>
+      </c>
+      <c r="E51">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44787</v>
+      </c>
+      <c r="E52">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44788</v>
+      </c>
+      <c r="E53">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44789</v>
+      </c>
+      <c r="E54">
+        <v>120</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44789</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44790</v>
+      </c>
+      <c r="E56">
+        <v>120</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44790</v>
+      </c>
+      <c r="E57">
+        <v>60</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44792</v>
+      </c>
+      <c r="E58">
+        <v>120</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44792</v>
+      </c>
+      <c r="E59">
+        <v>60</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44793</v>
+      </c>
+      <c r="E60">
+        <v>120</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44794</v>
+      </c>
+      <c r="E61">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44794</v>
+      </c>
+      <c r="E62">
+        <v>50</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44795</v>
+      </c>
+      <c r="E63">
+        <v>90</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44796</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44796</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44797</v>
+      </c>
+      <c r="E66">
+        <v>90</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44798</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44798</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44799</v>
+      </c>
+      <c r="E69">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44800</v>
+      </c>
+      <c r="E70">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44801</v>
+      </c>
+      <c r="E71">
+        <v>50</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44802</v>
+      </c>
+      <c r="E72">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44804</v>
+      </c>
+      <c r="E73">
+        <v>90</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E74">
+        <v>120</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44806</v>
+      </c>
+      <c r="E75">
+        <v>120</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44806</v>
+      </c>
+      <c r="E76">
+        <v>60</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44807</v>
+      </c>
+      <c r="E77">
+        <v>120</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44808</v>
+      </c>
+      <c r="E78">
+        <v>60</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44809</v>
+      </c>
+      <c r="E79">
+        <v>90</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44810</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44811</v>
+      </c>
+      <c r="E81">
+        <v>90</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44811</v>
+      </c>
+      <c r="E82">
+        <v>60</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44812</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44813</v>
+      </c>
+      <c r="E84">
+        <v>120</v>
+      </c>
+      <c r="F84" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44814</v>
+      </c>
+      <c r="E85">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44814</v>
+      </c>
+      <c r="E86">
+        <v>60</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44815</v>
+      </c>
+      <c r="E87">
+        <v>120</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44815</v>
+      </c>
+      <c r="E88">
+        <v>60</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44816</v>
+      </c>
+      <c r="E89">
+        <v>120</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44816</v>
+      </c>
+      <c r="E90">
+        <v>120</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44816</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44817</v>
+      </c>
+      <c r="E92">
+        <v>60</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1644,13 +2926,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3 E6:E434</xm:sqref>
+          <xm:sqref>E3 E6:E70 E72:E434</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F3 F6:F26 F28:F1048576</xm:sqref>
+          <xm:sqref>F3 F6:F26 F28:F70 F72:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Worklog/SIT723 Worklog.xlsx
+++ b/Worklog/SIT723 Worklog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deakin University (Applied AI (Professional)\SIT723 Research Project-A\Worklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D2C7D-9D08-4D48-B902-29CB113A7E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7663FAF4-733F-499F-848C-CE8EEBFE4EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="143">
   <si>
     <t>Student Name</t>
   </si>
@@ -383,6 +383,87 @@
   </si>
   <si>
     <t>Completed task-8.1P (Research progress report)</t>
+  </si>
+  <si>
+    <t>Working on research review draft's Research design &amp; Methodology part</t>
+  </si>
+  <si>
+    <t>Evaluation &amp; threats to validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results &amp; future work </t>
+  </si>
+  <si>
+    <t>Empirical Evaluation (research review draft)</t>
+  </si>
+  <si>
+    <t>Made a new VM instance &amp; achieved 84.12% training accuracy on 50 epochs</t>
+  </si>
+  <si>
+    <t>Updated on code debugging &amp; started working on research thesis draft report</t>
+  </si>
+  <si>
+    <t>Presented research thesis draft report &amp; got feedback according to it</t>
+  </si>
+  <si>
+    <t>Added new literature review (convolutions+transformer models)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added more content in Research design </t>
+  </si>
+  <si>
+    <t>Fine-tuning research design &amp; methodologies</t>
+  </si>
+  <si>
+    <t>Weekly Meeting-8</t>
+  </si>
+  <si>
+    <t>Weekly Meeting-9</t>
+  </si>
+  <si>
+    <t>Fine-tuning evaluation, results &amp; future work</t>
+  </si>
+  <si>
+    <t>Working on Task-10.1P</t>
+  </si>
+  <si>
+    <t>Working on Task-9.1P</t>
+  </si>
+  <si>
+    <t>Transformers for Covid19 Detection using X-ray Images</t>
+  </si>
+  <si>
+    <t>Weekly Meeting-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented updated Research thesis draft report &amp; started working on final report </t>
+  </si>
+  <si>
+    <t>Working on Final research presentation</t>
+  </si>
+  <si>
+    <t>Added more citations for research used</t>
+  </si>
+  <si>
+    <t>Added more content on Background Research</t>
+  </si>
+  <si>
+    <t>Working on 11.1P</t>
+  </si>
+  <si>
+    <t>Working on 11.2P</t>
+  </si>
+  <si>
+    <t>Working on 12.1P</t>
+  </si>
+  <si>
+    <t>Completing 11.P &amp; 12.1P</t>
+  </si>
+  <si>
+    <t>Completing 11.2P</t>
+  </si>
+  <si>
+    <t>Structuring, fine-tuning &amp; submitting all the tasks</t>
   </si>
 </sst>
 </file>
@@ -780,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2899,6 +2980,21 @@
       <c r="B93" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C93" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44818</v>
+      </c>
+      <c r="E93">
+        <v>50</v>
+      </c>
+      <c r="F93" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -2907,6 +3003,21 @@
       <c r="B94" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C94" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44818</v>
+      </c>
+      <c r="E94">
+        <v>90</v>
+      </c>
+      <c r="F94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -2914,6 +3025,872 @@
       </c>
       <c r="B95" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44819</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44820</v>
+      </c>
+      <c r="E96">
+        <v>50</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44820</v>
+      </c>
+      <c r="E97">
+        <v>110</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44821</v>
+      </c>
+      <c r="E98">
+        <v>60</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44821</v>
+      </c>
+      <c r="E99">
+        <v>90</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" s="4">
+        <v>44822</v>
+      </c>
+      <c r="E100">
+        <v>120</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="4">
+        <v>44822</v>
+      </c>
+      <c r="E101">
+        <v>90</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="4">
+        <v>44823</v>
+      </c>
+      <c r="E102">
+        <v>60</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="4">
+        <v>44823</v>
+      </c>
+      <c r="E103">
+        <v>70</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="4">
+        <v>44824</v>
+      </c>
+      <c r="E104">
+        <v>80</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="4">
+        <v>44824</v>
+      </c>
+      <c r="E105">
+        <v>30</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" s="4">
+        <v>44825</v>
+      </c>
+      <c r="E106">
+        <v>60</v>
+      </c>
+      <c r="F106" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="4">
+        <v>44825</v>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="4">
+        <v>44826</v>
+      </c>
+      <c r="E108">
+        <v>120</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>131</v>
+      </c>
+      <c r="D109" s="4">
+        <v>44827</v>
+      </c>
+      <c r="E109">
+        <v>110</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="4">
+        <v>44828</v>
+      </c>
+      <c r="E110">
+        <v>110</v>
+      </c>
+      <c r="F110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="4">
+        <v>44830</v>
+      </c>
+      <c r="E111">
+        <v>50</v>
+      </c>
+      <c r="F111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="4">
+        <v>44830</v>
+      </c>
+      <c r="E112">
+        <v>70</v>
+      </c>
+      <c r="F112" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="4">
+        <v>44831</v>
+      </c>
+      <c r="E113">
+        <v>60</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="4">
+        <v>44831</v>
+      </c>
+      <c r="E114">
+        <v>120</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>132</v>
+      </c>
+      <c r="D115" s="4">
+        <v>44832</v>
+      </c>
+      <c r="E115">
+        <v>50</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116" s="4">
+        <v>44833</v>
+      </c>
+      <c r="E116">
+        <v>60</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+      <c r="D117" s="4">
+        <v>44833</v>
+      </c>
+      <c r="E117">
+        <v>100</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="4">
+        <v>44834</v>
+      </c>
+      <c r="E118">
+        <v>60</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="4">
+        <v>44836</v>
+      </c>
+      <c r="E119">
+        <v>120</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="4">
+        <v>44837</v>
+      </c>
+      <c r="E120">
+        <v>110</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" s="4">
+        <v>44838</v>
+      </c>
+      <c r="E121">
+        <v>110</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122" s="4">
+        <v>44839</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="4">
+        <v>44839</v>
+      </c>
+      <c r="E123">
+        <v>100</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="4">
+        <v>44840</v>
+      </c>
+      <c r="E124">
+        <v>120</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" s="4">
+        <v>44840</v>
+      </c>
+      <c r="E125">
+        <v>40</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="4">
+        <v>44841</v>
+      </c>
+      <c r="E126">
+        <v>120</v>
+      </c>
+      <c r="F126" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" s="4">
+        <v>44841</v>
+      </c>
+      <c r="E127">
+        <v>100</v>
+      </c>
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="4">
+        <v>44842</v>
+      </c>
+      <c r="E128">
+        <v>120</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" s="4">
+        <v>44842</v>
+      </c>
+      <c r="E129">
+        <v>80</v>
+      </c>
+      <c r="F129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" s="4">
+        <v>44843</v>
+      </c>
+      <c r="E130">
+        <v>120</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" s="4">
+        <v>44843</v>
+      </c>
+      <c r="E131">
+        <v>100</v>
+      </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="4">
+        <v>44844</v>
+      </c>
+      <c r="E132">
+        <v>120</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +3909,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F3 F6:F26 F28:F70 F72:F1048576</xm:sqref>
+          <xm:sqref>F3 F6:F26 F28:F70 F72:F118 F120:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3055,6 +4032,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F91A6F9DB61C7A45BED08E943CE76CDB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8e7f53c33be68033672446c1e6efa23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01b46ff2-420f-42c8-8583-78d94109e361" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfdeac3786ae83719fa373dd0d32d08c" ns2:_="">
     <xsd:import namespace="01b46ff2-420f-42c8-8583-78d94109e361"/>
@@ -3186,22 +4178,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FB1FFC3-B1E9-4426-A852-9D9BC12D3CD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3217,21 +4211,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>